--- a/protocols/SprintReview_Protocol1_GamerHaven.xlsx
+++ b/protocols/SprintReview_Protocol1_GamerHaven.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webproject_GamerHaven\protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DDF0C7-B438-4F2B-ADF3-2E03AB34CEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B728C1A-8219-4A7F-B75D-F0CC28F090AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -65,12 +65,6 @@
     <t>short description [opt]</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Mentor</t>
   </si>
   <si>
@@ -89,56 +83,82 @@
     <t>List the IDs of the Requirements which are subject to the review</t>
   </si>
   <si>
-    <t>08.05.2024 - 12:00</t>
-  </si>
-  <si>
-    <t>Helmuth Lammer</t>
-  </si>
-  <si>
-    <t>02_ZenMonkey</t>
-  </si>
-  <si>
     <t>Participant 3</t>
   </si>
   <si>
-    <t>Rafin Ifta Alam</t>
-  </si>
-  <si>
-    <t>Lukas Huber</t>
-  </si>
-  <si>
-    <t>Dominik Pierdiluca</t>
-  </si>
-  <si>
-    <t>#6 Datenbank erstellen</t>
-  </si>
-  <si>
-    <t>#7 Datenbank verknüpfen</t>
-  </si>
-  <si>
-    <t>#10 Warenkorb hinzufügen</t>
-  </si>
-  <si>
-    <t>#8 Homepage erstellen</t>
-  </si>
-  <si>
-    <t>#9 Impressum erstellen</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Datenbank mittels Docker erstellt, wird verworfen; 
-Anforderung ist MariaDB oder MySQL mit php</t>
-  </si>
-  <si>
-    <t>#12 Registierungsformular erstellen</t>
-  </si>
-  <si>
-    <t>#11 Loginformular erstellen</t>
-  </si>
-  <si>
     <t>Die Arbeitspakete sind in unseren Kanban von Github mit Zahlen versehen. Diese werden mit #1,#2,etc. aufgelistet.</t>
+  </si>
+  <si>
+    <t>Impressum erstellen</t>
+  </si>
+  <si>
+    <t>Loginformular erstellen</t>
+  </si>
+  <si>
+    <t>Datenbank erstellen für User und Produkte</t>
+  </si>
+  <si>
+    <t>File Struktur organisieren</t>
+  </si>
+  <si>
+    <t>Registrierungsformular erstellen</t>
+  </si>
+  <si>
+    <t>Grunddesign erstellt und Bootstrap eingebunden</t>
+  </si>
+  <si>
+    <t>Probleme mit Pfaden</t>
+  </si>
+  <si>
+    <t>16_GamerHaven</t>
+  </si>
+  <si>
+    <t>Manpreet Misson</t>
+  </si>
+  <si>
+    <t>Felix Dallinger</t>
+  </si>
+  <si>
+    <t>Sebastian Ecker</t>
+  </si>
+  <si>
+    <t>Brigitte Pohn</t>
+  </si>
+  <si>
+    <t>Repository erstellen + Organisationstruktur</t>
+  </si>
+  <si>
+    <t>Datenbankverbindung mit dbaccess.php hergestellt</t>
+  </si>
+  <si>
+    <t>REQ01</t>
+  </si>
+  <si>
+    <t>REQ02</t>
+  </si>
+  <si>
+    <t>REQ03</t>
+  </si>
+  <si>
+    <t>REQ04</t>
+  </si>
+  <si>
+    <t>REQ05</t>
+  </si>
+  <si>
+    <t>REQ06</t>
+  </si>
+  <si>
+    <t>REQ07</t>
+  </si>
+  <si>
+    <t>REQ08</t>
+  </si>
+  <si>
+    <t>Xampp Verbindungsprobleme</t>
   </si>
 </sst>
 </file>
@@ -355,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,66 +396,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,7 +514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -597,7 +620,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -749,47 +772,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.453125" style="2"/>
-    <col min="8" max="8" width="66.1796875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="2"/>
+    <col min="2" max="2" width="110.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="2"/>
+    <col min="8" max="8" width="66.21875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -800,115 +823,115 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="17">
+        <v>45746</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,13 +939,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -934,188 +957,198 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <v>1</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <f>D15-C15</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <v>2</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <f>D16-C16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
-        <v>3</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
         <f>D17-C17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
-        <v>4</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E24" si="0">D18-C18</f>
-        <v>3</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>2</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="5">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5">
-        <v>5</v>
       </c>
       <c r="E20" s="2">
         <f>D20-C20</f>
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
-        <v>7</v>
+      <c r="H20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="D21" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="2">
         <f>D21-C21</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
       <c r="E22" s="2">
         <f>D22-C22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="H22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1127,11 +1160,9 @@
       <c r="G23" s="9"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="5"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="2">
@@ -1142,17 +1173,14 @@
       <c r="G24" s="9"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <f>COUNT(A15:A24)</f>
-        <v>7</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4">
         <f>SUM(E15:E24)</f>
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="F25" s="4">
         <f>COUNT(F15:F24)</f>
@@ -1166,23 +1194,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/protocols/SprintReview_Protocol1_GamerHaven.xlsx
+++ b/protocols/SprintReview_Protocol1_GamerHaven.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Webproject_GamerHaven\protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B728C1A-8219-4A7F-B75D-F0CC28F090AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D10FD-68C8-4877-B803-26B05FE65688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Probleme mit Pfaden</t>
   </si>
   <si>
-    <t>16_GamerHaven</t>
-  </si>
-  <si>
     <t>Manpreet Misson</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Xampp Verbindungsprobleme</t>
+  </si>
+  <si>
+    <t>06_GamerHaven</t>
   </si>
 </sst>
 </file>
@@ -396,6 +396,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,12 +435,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,30 +454,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -773,7 +773,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -789,28 +789,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -824,95 +824,95 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17">
+      <c r="B5" s="13"/>
+      <c r="C5" s="25">
         <v>45746</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -920,16 +920,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -959,10 +959,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>23</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
@@ -1047,11 +1047,11 @@
         <v>17</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="26"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
@@ -1070,11 +1070,11 @@
         <v>17</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -1094,15 +1094,15 @@
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5">
         <v>0.25</v>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -1194,14 +1194,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -1211,6 +1203,14 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
